--- a/fullstack_trainingapp/server/shared/Employee_database.xlsx
+++ b/fullstack_trainingapp/server/shared/Employee_database.xlsx
@@ -7,15 +7,21 @@
   </bookViews>
   <sheets>
     <sheet name="EmployeeSheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="EmployeeData" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Required Procedures" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'EmployeeData'!$A$1:$D$102</definedName>
+  </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -27,8 +33,10 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -48,33 +56,145 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="11"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -150,28 +270,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G34" headerRowCount="1" totalsRowShown="0">
-  <autoFilter ref="A1:G34"/>
-  <sortState ref="A32:G32">
-    <sortCondition ref="A1:A32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H159" headerRowCount="1" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+  <autoFilter ref="A1:H159"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="First Name" dataDxfId="13"/>
+    <tableColumn id="2" name="Last Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Badge Number" dataDxfId="11"/>
+    <tableColumn id="4" name="Training Title" dataDxfId="10"/>
+    <tableColumn id="5" name="Trainer" dataDxfId="9"/>
+    <tableColumn id="6" name="Date" dataDxfId="8"/>
+    <tableColumn id="7" name="Work Center" dataDxfId="7"/>
+    <tableColumn id="8" name="Department" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D95" headerRowCount="1" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D95"/>
+  <sortState ref="A2:D86">
+    <sortCondition ref="A1:A86"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" name="First Name"/>
-    <tableColumn id="2" name="Last Name"/>
-    <tableColumn id="3" name="Badge Number" dataDxfId="0"/>
-    <tableColumn id="5" name="Training Title"/>
-    <tableColumn id="6" name="Trainer"/>
-    <tableColumn id="7" name="Date"/>
-    <tableColumn id="4" name="Work Center"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Work Instructions" dataDxfId="3"/>
+    <tableColumn id="2" name="Work Center" dataDxfId="2"/>
+    <tableColumn id="3" name="Department" dataDxfId="1"/>
+    <tableColumn id="4" name="Training Required" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,28 +313,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -209,7 +343,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -281,7 +415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -302,6 +436,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -312,31 +447,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -358,7 +493,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -416,7 +551,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -429,12 +564,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -454,67 +590,72 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="12" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="14" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="25" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="12" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
-    <col width="14" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="2" customWidth="1" style="4" min="8" max="8"/>
-    <col width="2" customWidth="1" style="4" min="9" max="9"/>
-    <col width="2" customWidth="1" style="4" min="10" max="10"/>
+    <col width="14" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14" customWidth="1" style="1" min="3" max="3"/>
+    <col width="25" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="19" bestFit="1" customWidth="1" style="1" min="5" max="5"/>
+    <col width="12" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="13" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+    <col width="14" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="9.140625" customWidth="1" style="1" min="9" max="11"/>
+    <col width="9.140625" customWidth="1" style="1" min="12" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="4">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>First Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Last Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Badge Number</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Training Title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Trainer</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Work Center</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1" s="4">
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Luke</t>
@@ -538,16 +679,19 @@
           <t>Master Yoda</t>
         </is>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="F2" s="4" t="n">
+        <v>44652.6671875</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Maintenance</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="19.5" customHeight="1" s="4">
+    <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Leia</t>
@@ -571,16 +715,19 @@
           <t>Princess Leia</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>25568.6671875</v>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="F3" s="4" t="n">
+        <v>44653</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>Diplomacy</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="19.5" customHeight="1" s="4">
+    <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Han</t>
@@ -604,16 +751,19 @@
           <t>Chewbacca</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="F4" s="4" t="n">
+        <v>44654</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" s="4">
+    <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Obi-Wan</t>
@@ -637,16 +787,19 @@
           <t>Qui-Gon Jinn</t>
         </is>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="F5" s="4" t="n">
+        <v>39176</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="19.5" customHeight="1" s="4">
+    <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Padmé</t>
@@ -670,16 +823,19 @@
           <t>Senator Palpatine</t>
         </is>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="F6" s="4" t="n">
+        <v>44656</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>Politics</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="19.5" customHeight="1" s="4">
+    <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Anakin</t>
@@ -703,16 +859,19 @@
           <t>Watto</t>
         </is>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="F7" s="4" t="n">
+        <v>45022</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>Maintenance</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="19.5" customHeight="1" s="4">
+    <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Lando</t>
@@ -736,16 +895,19 @@
           <t>Lobot</t>
         </is>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="F8" s="4" t="n">
+        <v>45023</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="19.5" customHeight="1" s="4">
+    <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Rey</t>
@@ -769,16 +931,19 @@
           <t>Luke Skywalker</t>
         </is>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="F9" s="4" t="n">
+        <v>45024</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
         <is>
           <t>Maintenance</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="19.5" customHeight="1" s="4">
+    <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Finn</t>
@@ -802,16 +967,19 @@
           <t>Captain Phasma</t>
         </is>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="F10" s="4" t="n">
+        <v>45025</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="19.5" customHeight="1" s="4">
+    <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Poe</t>
@@ -835,16 +1003,19 @@
           <t>General Leia</t>
         </is>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="F11" s="4" t="n">
+        <v>45026</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
         <is>
           <t>Piloting</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="19.5" customHeight="1" s="4">
+    <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Ahsoka</t>
@@ -868,16 +1039,19 @@
           <t>Anakin Skywalker</t>
         </is>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="F12" s="4" t="n">
+        <v>45027</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="19.5" customHeight="1" s="4">
+    <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Mace</t>
@@ -901,16 +1075,19 @@
           <t>Master Yoda</t>
         </is>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="F13" s="4" t="n">
+        <v>45028</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>6030</v>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
         <is>
           <t>Council</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="19.5" customHeight="1" s="4">
+    <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Chewbacca</t>
@@ -934,16 +1111,19 @@
           <t>Han Solo</t>
         </is>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="F14" s="4" t="n">
+        <v>45029</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
         <is>
           <t>Maintenance</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="19.5" customHeight="1" s="4">
+    <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>R2-D2</t>
@@ -967,16 +1147,19 @@
           <t>C-3PO Detoo</t>
         </is>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="F15" s="4" t="n">
+        <v>45030</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
         <is>
           <t>Maintenance</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="19.5" customHeight="1" s="4">
+    <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>C-3PO</t>
@@ -1000,16 +1183,19 @@
           <t>Padmé Amidala</t>
         </is>
       </c>
-      <c r="F16" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="F16" s="4" t="n">
+        <v>45031</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
         <is>
           <t>Programming</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="19.5" customHeight="1" s="4">
+    <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Han</t>
@@ -1033,16 +1219,19 @@
           <t>Chewbacca</t>
         </is>
       </c>
-      <c r="F17" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="F17" s="4" t="n">
+        <v>45170.6671875</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="19.5" customHeight="1" s="4">
+    <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Boba</t>
@@ -1066,16 +1255,19 @@
           <t>Jabba the Hutt</t>
         </is>
       </c>
-      <c r="F18" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="F18" s="4" t="n">
+        <v>45170.6671875</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
         <is>
           <t>Bounty</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="19.5" customHeight="1" s="4">
+    <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Jango</t>
@@ -1099,16 +1291,19 @@
           <t>Boba Fett</t>
         </is>
       </c>
-      <c r="F19" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="F19" s="4" t="n">
+        <v>45175.6671875</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
         <is>
           <t>Bounty</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="19.5" customHeight="1" s="4">
+    <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Aayla</t>
@@ -1120,7 +1315,7 @@
         </is>
       </c>
       <c r="C20" s="1" t="n">
-        <v>77777</v>
+        <v>77778</v>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
@@ -1132,16 +1327,19 @@
           <t>Mace Windu</t>
         </is>
       </c>
-      <c r="F20" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="F20" s="4" t="n">
+        <v>45176</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="19.5" customHeight="1" s="4">
+    <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Ki-Adi-Mundi</t>
@@ -1165,16 +1363,19 @@
           <t>Yoda</t>
         </is>
       </c>
-      <c r="F21" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="F21" s="4" t="n">
+        <v>45177</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>6030</v>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
         <is>
           <t>Council</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="19.5" customHeight="1" s="4">
+    <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Kit</t>
@@ -1198,16 +1399,19 @@
           <t>Ahsoka Tano</t>
         </is>
       </c>
-      <c r="F22" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="F22" s="4" t="n">
+        <v>45178</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="19.5" customHeight="1" s="4">
+    <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Shaak Ti</t>
@@ -1231,16 +1435,19 @@
           <t>Ki-Adi-Mundi</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="F23" s="4" t="n">
+        <v>45179</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1" s="4">
+    <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Plo Koon</t>
@@ -1264,16 +1471,19 @@
           <t>Aayla Secura</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="F24" s="4" t="n">
+        <v>45180</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" s="4">
+    <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Han</t>
@@ -1297,16 +1507,19 @@
           <t>Chewbacca</t>
         </is>
       </c>
-      <c r="F25" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="F25" s="4" t="n">
+        <v>45181</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" s="4">
+    <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Jyn</t>
@@ -1330,16 +1543,19 @@
           <t>Cassian Andor</t>
         </is>
       </c>
-      <c r="F26" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="F26" s="4" t="n">
+        <v>45182</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
         <is>
           <t>Rebellion</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="18.75" customHeight="1" s="4">
+    <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Wedge</t>
@@ -1363,16 +1579,19 @@
           <t>Luke Skywalker</t>
         </is>
       </c>
-      <c r="F27" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="F27" s="4" t="n">
+        <v>45183</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
         <is>
           <t>Piloting</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="18.75" customHeight="1" s="4">
+    <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Hera</t>
@@ -1396,16 +1615,19 @@
           <t>Kanan Jarrus</t>
         </is>
       </c>
-      <c r="F28" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="F28" s="4" t="n">
+        <v>45184</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" s="4">
+    <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Chirrut</t>
@@ -1429,16 +1651,19 @@
           <t>Baze Malbus</t>
         </is>
       </c>
-      <c r="F29" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="F29" s="4" t="n">
+        <v>45185</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1" s="4">
+    <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Bodhi</t>
@@ -1462,16 +1687,19 @@
           <t>Saw Gerrera</t>
         </is>
       </c>
-      <c r="F30" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="F30" s="4" t="n">
+        <v>45186</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
         <is>
           <t>Intelligence</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1" s="4">
+    <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Orson</t>
@@ -1495,148 +1723,7575 @@
           <t>Darth Vader</t>
         </is>
       </c>
-      <c r="F31" s="2" t="n">
-        <v>25568.66718954861</v>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="F31" s="4" t="n">
+        <v>45187</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
         <is>
           <t>Operations</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="18.75" customHeight="1" s="4"/>
-    <row r="33" ht="18.75" customHeight="1" s="4"/>
-    <row r="34" ht="18.75" customHeight="1" s="4"/>
-    <row r="35" ht="18.75" customHeight="1" s="4"/>
-    <row r="36" ht="18.75" customHeight="1" s="4">
-      <c r="G36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" ht="18.75" customHeight="1" s="4"/>
-    <row r="38" ht="18.75" customHeight="1" s="4"/>
-    <row r="39" ht="18.75" customHeight="1" s="4"/>
-    <row r="40" ht="18.75" customHeight="1" s="4"/>
-    <row r="41" ht="18.75" customHeight="1" s="4"/>
-    <row r="42" ht="18.75" customHeight="1" s="4"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Doris</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>60941</v>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="n">
+        <v>45188</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Joyce</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Hall</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>99826</v>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="n">
+        <v>45189</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="H33" s="1" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Harold</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>18090</v>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>45190</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>31694</v>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>45191</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>14896</v>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>45192</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H36" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Wayne</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>47095</v>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>45193</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Janet</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Hernandez</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>20128</v>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>45194</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Martha</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>Wright</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>58286</v>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>45195</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>99806</v>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="n">
+        <v>45196</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>20373</v>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="n">
+        <v>45197</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Eugene</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Hill</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>50102</v>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="n">
+        <v>45198</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>83966</v>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>45199</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Frances</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>66751</v>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>45200</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H44" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>Ramirez</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>60480</v>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>45201</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Arthur</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>45202</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>11716</v>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>45203</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>56847</v>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>44109</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Adams</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>37053</v>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>45205</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>26074</v>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="n">
+        <v>45206</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Young</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>55102</v>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F51" s="4" t="n">
+        <v>45207</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Doris</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>56925</v>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>45208</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Donald</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>29352</v>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="n">
+        <v>45209</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="H53" s="1" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>70361</v>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="n">
+        <v>45210</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Kathleen</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>27498</v>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="n">
+        <v>45211</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>Young</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>42262</v>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>45212</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>25334</v>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>45213</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H57" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Barbara</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>Carter</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>40420</v>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>45214</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H58" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>59184</v>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="n">
+        <v>45215</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H59" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>81247</v>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>45216</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H60" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>19366</v>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="n">
+        <v>45217</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H61" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>54423</v>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="n">
+        <v>45218</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H62" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>18602</v>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F63" s="4" t="n">
+        <v>45219</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="H63" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>65622</v>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="n">
+        <v>45220</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H64" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Eugene</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Flores</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>20754</v>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F65" s="4" t="n">
+        <v>45221</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="H65" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Philip</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>Harris</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>87822</v>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="n">
+        <v>45222</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H66" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Christine</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>Walker</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>94496</v>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F67" s="4" t="n">
+        <v>45223</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H67" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>39542</v>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="n">
+        <v>45224</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="H68" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>42420</v>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F69" s="4" t="n">
+        <v>45225</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H69" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>38658</v>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="n">
+        <v>45226</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H70" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>12753</v>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="n">
+        <v>45227</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H71" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>Nguyen</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>32897</v>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="n">
+        <v>45228</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="H72" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>Rivera</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>40166</v>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F73" s="4" t="n">
+        <v>45229</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="H73" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Alan</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>35287</v>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="n">
+        <v>45230</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H74" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>68152</v>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F75" s="4" t="n">
+        <v>45231</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="H75" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Frances</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>30381</v>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="n">
+        <v>45232</v>
+      </c>
+      <c r="G76" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="H76" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Willie</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>30467</v>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F77" s="4" t="n">
+        <v>45233</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H77" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Joyce</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>23024</v>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="n">
+        <v>45234</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H78" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Joyce</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>Harris</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>39751</v>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F79" s="4" t="n">
+        <v>45235</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H79" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>88445</v>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="n">
+        <v>45236</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H80" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>47412</v>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="n">
+        <v>45237</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H81" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>35044</v>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="n">
+        <v>45238</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H82" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>91109</v>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F83" s="4" t="n">
+        <v>45239</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="H83" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>98374</v>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="n">
+        <v>45240</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H84" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Gloria</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>Harris</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>60938</v>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E85" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F85" s="4" t="n">
+        <v>45241</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H85" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Catherine</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>50294</v>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="E86" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="n">
+        <v>45242</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H86" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>63364</v>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="E87" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F87" s="4" t="n">
+        <v>45243</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="H87" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>Flores</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>22396</v>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="E88" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="n">
+        <v>45152</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H88" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>65077</v>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="E89" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F89" s="4" t="n">
+        <v>45153</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H89" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>83574</v>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="E90" s="1" t="inlineStr">
+        <is>
+          <t>Boba Fett</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="n">
+        <v>45154</v>
+      </c>
+      <c r="G90" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H90" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>Ramirez</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>37005</v>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="E91" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F91" s="4" t="n">
+        <v>45155</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="H91" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+    </row>
     <row r="92">
-      <c r="J92" t="n">
-        <v>41</v>
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Betty</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>Adams</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>67570</v>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="E92" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="n">
+        <v>45156</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="H92" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Leon</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Ten</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>357539</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Supplier Quality</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>Nguyen</t>
+        </is>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>37908</v>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="E93" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F93" s="4" t="n">
+        <v>45157</v>
+      </c>
+      <c r="G93" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H93" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Catherine</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>61249</v>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="E94" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="n">
+        <v>45158</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="H94" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Carter</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>55469</v>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E95" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F95" s="4" t="n">
+        <v>45159</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="H95" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Harold</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>83497</v>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="E96" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="n">
+        <v>45160</v>
+      </c>
+      <c r="G96" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H96" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>Deborah</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>43435</v>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F97" s="4" t="n">
+        <v>45161</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="H97" s="1" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>91572</v>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="n">
+        <v>45162</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="H98" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>74763</v>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F99" s="4" t="n">
+        <v>45163</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="H99" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>60943</v>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="n">
+        <v>45164</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="H100" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>64221</v>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F101" s="4" t="n">
+        <v>45165</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="H101" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>987513</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="n">
+        <v>45211</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="H102" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>987513</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>Han Solo</t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="n">
+        <v>45211</v>
+      </c>
+      <c r="G103" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="H103" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>Skywalker</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G104" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H104" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Anakin</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>Skywalker</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>13579</v>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F105" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G105" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H105" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>Rey</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>Skywalker</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>24681</v>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G106" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H106" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Chewbacca</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>Wookiee</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>11111</v>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F107" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G107" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H107" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>R2-D2</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>Astromech</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>22222</v>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G108" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H108" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>56847</v>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F109" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G109" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H109" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>Young</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>55102</v>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G110" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H110" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>25334</v>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F111" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G111" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H111" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>59184</v>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G112" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H112" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>Harold</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>83497</v>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>Darth Vader</t>
+        </is>
+      </c>
+      <c r="F113" s="4" t="n">
+        <v>44949</v>
+      </c>
+      <c r="G113" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="H113" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>359412</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Front-End Developer</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Goku Son</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2023-10-06</t>
-        </is>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F113"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" style="1" min="1" max="1"/>
+    <col width="12" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col width="14" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="21" bestFit="1" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="2" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Badge Number</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Work Center</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Skywalker</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Leia</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Organa</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>67890</v>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Han</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>54321</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Obi-Wan</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Kenobi</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>98765</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Padmé</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Amidala</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24680</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Anakin</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Skywalker</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>13579</v>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Lando</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Calrissian</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>86420</v>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Rey</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Skywalker</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>24681</v>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Finn</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>FN-2187</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>77777</v>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Poe</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Dameron</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>65432</v>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Ahsoka</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Tano</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>98712</v>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Mace</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Windu</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>36912</v>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Council</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Chewbacca</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Wookiee</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>11111</v>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>R2-D2</t>
+        </is>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Astromech</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>22222</v>
+      </c>
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>C-3PO</t>
+        </is>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Protocol</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>33333</v>
+      </c>
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>Han</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>44444</v>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>Boba</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Fett</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>55555</v>
+      </c>
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Jango</t>
+        </is>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>Fett</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>66666</v>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Aayla</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>Secura</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>77778</v>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Ki-Adi-Mundi</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Cerean</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>88888</v>
+      </c>
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Council</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Kit</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Fisto</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>99999</v>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Shaak Ti</t>
+        </is>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>Togruta</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>10101</v>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>Plo Koon</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Kel Dor</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>20202</v>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Han</t>
+        </is>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>Solo</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>30303</v>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Jyn</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Erso</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>40404</v>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Wedge</t>
+        </is>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Antilles</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>50505</v>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>Hera</t>
+        </is>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Syndulla</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>60606</v>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Chirrut</t>
+        </is>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Îmwe</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>70707</v>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Bodhi</t>
+        </is>
+      </c>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Rook</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>80808</v>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Orson</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>Krennic</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>90909</v>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Doris</t>
+        </is>
+      </c>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="n">
+        <v>60941</v>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>Joyce</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>Hall</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>99826</v>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>Harold</t>
+        </is>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>18090</v>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>31694</v>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Scott</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>14896</v>
+      </c>
+      <c r="D36" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>Wayne</t>
+        </is>
+      </c>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>47095</v>
+      </c>
+      <c r="D37" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>Janet</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>Hernandez</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>20128</v>
+      </c>
+      <c r="D38" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>Martha</t>
+        </is>
+      </c>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>Wright</t>
+        </is>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>58286</v>
+      </c>
+      <c r="D39" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>Henry</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>99806</v>
+      </c>
+      <c r="D40" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>20373</v>
+      </c>
+      <c r="D41" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>Eugene</t>
+        </is>
+      </c>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>Hill</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>50102</v>
+      </c>
+      <c r="D42" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>83966</v>
+      </c>
+      <c r="D43" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E43" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>Frances</t>
+        </is>
+      </c>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>66751</v>
+      </c>
+      <c r="D44" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>Ramirez</t>
+        </is>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>60480</v>
+      </c>
+      <c r="D45" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>Arthur</t>
+        </is>
+      </c>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>45314</v>
+      </c>
+      <c r="D46" s="5" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>11716</v>
+      </c>
+      <c r="D47" s="5" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>56847</v>
+      </c>
+      <c r="D48" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>Adams</t>
+        </is>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>37053</v>
+      </c>
+      <c r="D49" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>Sandra</t>
+        </is>
+      </c>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Martin</t>
+        </is>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>26074</v>
+      </c>
+      <c r="D50" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Young</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>55102</v>
+      </c>
+      <c r="D51" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>Doris</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>56925</v>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>Donald</t>
+        </is>
+      </c>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="n">
+        <v>29352</v>
+      </c>
+      <c r="D53" s="5" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="E53" s="5" t="n">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="n">
+        <v>70361</v>
+      </c>
+      <c r="D54" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E54" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>Kathleen</t>
+        </is>
+      </c>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>Wilson</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="n">
+        <v>27498</v>
+      </c>
+      <c r="D55" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>Young</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>42262</v>
+      </c>
+      <c r="D56" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="n">
+        <v>25334</v>
+      </c>
+      <c r="D57" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>Barbara</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>Carter</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="n">
+        <v>40420</v>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C59" s="5" t="n">
+        <v>59184</v>
+      </c>
+      <c r="D59" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>81247</v>
+      </c>
+      <c r="D60" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>19366</v>
+      </c>
+      <c r="D61" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>Miller</t>
+        </is>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>54423</v>
+      </c>
+      <c r="D62" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>18602</v>
+      </c>
+      <c r="D63" s="5" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="n">
+        <v>65622</v>
+      </c>
+      <c r="D64" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>Eugene</t>
+        </is>
+      </c>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>Flores</t>
+        </is>
+      </c>
+      <c r="C65" s="5" t="n">
+        <v>20754</v>
+      </c>
+      <c r="D65" s="5" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>Philip</t>
+        </is>
+      </c>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>Harris</t>
+        </is>
+      </c>
+      <c r="C66" s="5" t="n">
+        <v>87822</v>
+      </c>
+      <c r="D66" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>Christine</t>
+        </is>
+      </c>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>Walker</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>94496</v>
+      </c>
+      <c r="D67" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>Jerry</t>
+        </is>
+      </c>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C68" s="5" t="n">
+        <v>39542</v>
+      </c>
+      <c r="D68" s="5" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="n">
+        <v>42420</v>
+      </c>
+      <c r="D69" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>Jackson</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="n">
+        <v>38658</v>
+      </c>
+      <c r="D70" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="C71" s="5" t="n">
+        <v>12753</v>
+      </c>
+      <c r="D71" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>Nguyen</t>
+        </is>
+      </c>
+      <c r="C72" s="5" t="n">
+        <v>32897</v>
+      </c>
+      <c r="D72" s="5" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>Rivera</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="n">
+        <v>40166</v>
+      </c>
+      <c r="D73" s="5" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>Alan</t>
+        </is>
+      </c>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="C74" s="5" t="n">
+        <v>35287</v>
+      </c>
+      <c r="D74" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E74" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="n">
+        <v>68152</v>
+      </c>
+      <c r="D75" s="5" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>Frances</t>
+        </is>
+      </c>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="C76" s="5" t="n">
+        <v>30381</v>
+      </c>
+      <c r="D76" s="5" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>Willie</t>
+        </is>
+      </c>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>Perez</t>
+        </is>
+      </c>
+      <c r="C77" s="5" t="n">
+        <v>30467</v>
+      </c>
+      <c r="D77" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>Joyce</t>
+        </is>
+      </c>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="n">
+        <v>23024</v>
+      </c>
+      <c r="D78" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>Joyce</t>
+        </is>
+      </c>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>Harris</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="n">
+        <v>39751</v>
+      </c>
+      <c r="D79" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>Thompson</t>
+        </is>
+      </c>
+      <c r="C80" s="5" t="n">
+        <v>88445</v>
+      </c>
+      <c r="D80" s="5" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>47412</v>
+      </c>
+      <c r="D81" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="n">
+        <v>35044</v>
+      </c>
+      <c r="D82" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C83" s="5" t="n">
+        <v>91109</v>
+      </c>
+      <c r="D83" s="5" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="E83" s="5" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="n">
+        <v>98374</v>
+      </c>
+      <c r="D84" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>Gloria</t>
+        </is>
+      </c>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>Harris</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="n">
+        <v>60938</v>
+      </c>
+      <c r="D85" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>Catherine</t>
+        </is>
+      </c>
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="C86" s="5" t="n">
+        <v>50294</v>
+      </c>
+      <c r="D86" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="n">
+        <v>63364</v>
+      </c>
+      <c r="D87" s="5" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>Flores</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="n">
+        <v>22396</v>
+      </c>
+      <c r="D88" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C89" s="5" t="n">
+        <v>65077</v>
+      </c>
+      <c r="D89" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>Linda</t>
+        </is>
+      </c>
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>Rodriguez</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="n">
+        <v>83574</v>
+      </c>
+      <c r="D90" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>Ramirez</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="n">
+        <v>37005</v>
+      </c>
+      <c r="D91" s="5" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>Betty</t>
+        </is>
+      </c>
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>Adams</t>
+        </is>
+      </c>
+      <c r="C92" s="5" t="n">
+        <v>67570</v>
+      </c>
+      <c r="D92" s="5" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>Nguyen</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="n">
+        <v>37908</v>
+      </c>
+      <c r="D93" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E93" s="5" t="n">
+        <v>6040</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>Catherine</t>
+        </is>
+      </c>
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="C94" s="5" t="n">
+        <v>61249</v>
+      </c>
+      <c r="D94" s="5" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>6070</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>Carter</t>
+        </is>
+      </c>
+      <c r="C95" s="5" t="n">
+        <v>55469</v>
+      </c>
+      <c r="D95" s="5" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>Harold</t>
+        </is>
+      </c>
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="C96" s="5" t="n">
+        <v>83497</v>
+      </c>
+      <c r="D96" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>Deborah</t>
+        </is>
+      </c>
+      <c r="B97" s="5" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="C97" s="5" t="n">
+        <v>43435</v>
+      </c>
+      <c r="D97" s="5" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>6080</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
+      </c>
+      <c r="B98" s="5" t="inlineStr">
+        <is>
+          <t>Lopez</t>
+        </is>
+      </c>
+      <c r="C98" s="5" t="n">
+        <v>91572</v>
+      </c>
+      <c r="D98" s="5" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="E98" s="5" t="n">
+        <v>6110</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>Steve</t>
+        </is>
+      </c>
+      <c r="B99" s="5" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="n">
+        <v>74763</v>
+      </c>
+      <c r="D99" s="5" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B100" s="5" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>60943</v>
+      </c>
+      <c r="D100" s="5" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="E100" s="5" t="n">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="B101" s="5" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>64221</v>
+      </c>
+      <c r="D101" s="5" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="E101" s="5" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="inlineStr">
+        <is>
+          <t>Sam</t>
+        </is>
+      </c>
+      <c r="B102" s="5" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="C102" s="5" t="n">
+        <v>98751</v>
+      </c>
+      <c r="D102" s="5" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="E102" s="5" t="n">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="inlineStr">
+        <is>
+          <t>Luke</t>
+        </is>
+      </c>
+      <c r="B103" s="5" t="inlineStr">
+        <is>
+          <t>Skywalker</t>
+        </is>
+      </c>
+      <c r="C103" s="5" t="n">
+        <v>12345</v>
+      </c>
+      <c r="D103" s="5" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="E103" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="inlineStr">
+        <is>
+          <t>Anakin</t>
+        </is>
+      </c>
+      <c r="B104" s="5" t="inlineStr">
+        <is>
+          <t>Skywalker</t>
+        </is>
+      </c>
+      <c r="C104" s="5" t="n">
+        <v>13579</v>
+      </c>
+      <c r="D104" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E104" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="inlineStr">
+        <is>
+          <t>Rey</t>
+        </is>
+      </c>
+      <c r="B105" s="5" t="inlineStr">
+        <is>
+          <t>Skywalker</t>
+        </is>
+      </c>
+      <c r="C105" s="5" t="n">
+        <v>24681</v>
+      </c>
+      <c r="D105" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E105" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>Chewbacca</t>
+        </is>
+      </c>
+      <c r="B106" s="5" t="inlineStr">
+        <is>
+          <t>Wookiee</t>
+        </is>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>11111</v>
+      </c>
+      <c r="D106" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E106" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="inlineStr">
+        <is>
+          <t>R2-D2</t>
+        </is>
+      </c>
+      <c r="B107" s="5" t="inlineStr">
+        <is>
+          <t>Astromech</t>
+        </is>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>22222</v>
+      </c>
+      <c r="D107" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E107" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="inlineStr">
+        <is>
+          <t>Gerald</t>
+        </is>
+      </c>
+      <c r="B108" s="5" t="inlineStr">
+        <is>
+          <t>Campbell</t>
+        </is>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>56847</v>
+      </c>
+      <c r="D108" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E108" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="B109" s="5" t="inlineStr">
+        <is>
+          <t>Young</t>
+        </is>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>55102</v>
+      </c>
+      <c r="D109" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E109" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="inlineStr">
+        <is>
+          <t>Bruce</t>
+        </is>
+      </c>
+      <c r="B110" s="5" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="C110" s="5" t="n">
+        <v>25334</v>
+      </c>
+      <c r="D110" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E110" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="inlineStr">
+        <is>
+          <t>Emily</t>
+        </is>
+      </c>
+      <c r="B111" s="5" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>59184</v>
+      </c>
+      <c r="D111" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E111" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="inlineStr">
+        <is>
+          <t>Harold</t>
+        </is>
+      </c>
+      <c r="B112" s="5" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>83497</v>
+      </c>
+      <c r="D112" s="5" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="E112" s="5" t="n">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>Featz</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Earbuds</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>357539</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Supplier Quality</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Goku Son</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2023-10-06</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>253473</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Front-End Developer</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2023-10-17</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D102"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D95"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="13" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="2" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Work Instructions</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Work Center</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Training Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Tactics</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Basic Training</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Blind Warrior Zen</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Bounty Hunting</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Cerean Wisdom</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>6030</v>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Council</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Coding Bootcamp</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Communication Skills</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Death Star Project</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy 101</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Droid Maintenance</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Firearm Safety</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>First Aid</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Force Awakened</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Galactic Politics</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Ghost Ship Tactics</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Imperial Intel</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Jedi Council Etiquette</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>6030</v>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>Council</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Jedi Mind Tricks</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Kel Dor Force Mastery</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>6090</v>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Leadership 101</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C53" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Lightsaber Dueling</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Lightsaber Training</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Lightsaber Training</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Mandalorian Combat</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Mechanical Skills</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Nautolan Aquatic Combat</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Pilot Training</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Podracing Mastery</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Protocol Programming</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion Leadership</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Smooth Talking</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Smuggling Basics</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>Starfighter Piloting</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Stormtrooper Basics</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>Survival Training</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Togruta Meditation</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Twi'lek Lightsaber</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Wookiee Strength</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>6060</v>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>Maintenance</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>X-wing Piloting</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>6080</v>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>Piloting</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Survival Training</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Survival Training</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Survival Training</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>6010</v>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>Bounty</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Survival Training</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>6040</v>
+      </c>
+      <c r="C90" s="1" t="inlineStr">
+        <is>
+          <t>Diplomacy</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Survival Training</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>Intelligence</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Survival Training</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>6070</v>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Survival Training</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C93" s="1" t="inlineStr">
+        <is>
+          <t>Programming</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>Advanced Survival Training</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>Rebellion</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Death Star Cooking Class</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C95" s="1" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="inlineStr">
+        <is>
+          <t>Once a year</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
